--- a/Documents/Sprints/Sprint from 16 to 30 of april.xlsx
+++ b/Documents/Sprints/Sprint from 16 to 30 of april.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Tarea para hacer en el SPRINT</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Modo survival</t>
+  </si>
+  <si>
+    <t>Dia 11: Creacion del modo survival, GameC y LevelC.
+Dia 12: Desarrollo metodos herencia Game.
+Dia 14: Desarrollo metodos herencia Level.
+Dia 15: Implementacion de la carga de nivel XML.
+Dia 15: Se genera un algoritmo, para que cada vez aparezcan mas enemigos, a partir del mismo XML de manera infinita
+Dia 16: Se implementa en la pantalla de juego, el tiempo que se esta manteniendo con vida
+Dia 17: Se desarrolla e incluye el XML final.</t>
+  </si>
+  <si>
+    <t>Dia 17: Fin</t>
   </si>
   <si>
     <t>Oscar</t>
@@ -759,13 +771,17 @@
       <c t="s" s="10" r="C12">
         <v>24</v>
       </c>
-      <c s="3" r="D12"/>
-      <c s="19" r="E12"/>
+      <c t="s" s="3" r="D12">
+        <v>25</v>
+      </c>
+      <c t="s" s="19" r="E12">
+        <v>26</v>
+      </c>
       <c s="1" r="F12"/>
     </row>
     <row r="13">
       <c t="s" s="2" r="A13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" s="2" r="B13">
         <v>8</v>
@@ -773,43 +789,47 @@
       <c t="s" s="10" r="C13">
         <v>24</v>
       </c>
-      <c s="3" r="D13"/>
-      <c s="19" r="E13"/>
+      <c t="s" s="3" r="D13">
+        <v>25</v>
+      </c>
+      <c t="s" s="19" r="E13">
+        <v>26</v>
+      </c>
       <c s="1" r="F13"/>
     </row>
     <row r="14">
       <c t="s" s="2" r="A14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" s="2" r="B14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" s="10" r="C14">
         <v>21</v>
       </c>
       <c t="s" s="3" r="D14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" s="11" r="E14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c s="1" r="F14"/>
     </row>
     <row customHeight="1" r="15" ht="80.25">
       <c t="s" s="2" r="A15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" s="2" r="B15">
         <v>8</v>
       </c>
       <c t="s" s="10" r="C15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" s="3" r="D15">
         <v>19</v>
       </c>
       <c t="s" s="19" r="E15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c s="1" r="F15"/>
     </row>
